--- a/CCF 推荐会议期刊目录 2019.xlsx
+++ b/CCF 推荐会议期刊目录 2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\CCF 会议期刊推荐目录 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23504A4-7F6A-4850-9C5E-1DDB56E3C99C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD2223B-EE30-4714-8241-65C99CAEACE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4C0847B-4EAD-411C-A4BF-0035CE61BEE3}"/>
   </bookViews>
@@ -2277,9 +2277,6 @@
     <t>http://dblp.uni-trier.de/db/conf/vmcai/</t>
   </si>
   <si>
-    <t>International Conference on Web Services（Research Track）</t>
-  </si>
-  <si>
     <t>http://dblp.uni-trier.de/db/conf/icws/</t>
   </si>
   <si>
@@ -2596,9 +2593,6 @@
     <t>TKDD</t>
   </si>
   <si>
-    <t>ACM Transactions on Knowledge  Discovery from Data</t>
-  </si>
-  <si>
     <t>http://dblp.uni-trier.de/db/journals/tkdd/</t>
   </si>
   <si>
@@ -2632,9 +2626,6 @@
     <t>DMKD</t>
   </si>
   <si>
-    <t>Data Mining and Knowledge  Discovery</t>
-  </si>
-  <si>
     <t>http://dblp.uni-trier.de/db/journals/datamine/</t>
   </si>
   <si>
@@ -2851,25 +2842,16 @@
     <t>SIGMODACM</t>
   </si>
   <si>
-    <t xml:space="preserve"> Conference on Management of Data</t>
-  </si>
-  <si>
     <t>http://dblp.uni-trier.de/db/conf/sigmod/</t>
   </si>
   <si>
     <t>SIGKDDACM</t>
   </si>
   <si>
-    <t xml:space="preserve"> Knowledge Discovery and Data Mining</t>
-  </si>
-  <si>
     <t>http://dblp.uni-trier.de/db/conf/kdd/</t>
   </si>
   <si>
     <t>ICDEIEEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Conference on Data Engineering</t>
   </si>
   <si>
     <t>http://dblp.uni-trier.de/db/conf/icde/</t>
@@ -4885,18 +4867,12 @@
     <t>NAACL</t>
   </si>
   <si>
-    <t>The Annual Conference of the North  American Chapter of the Association for Computational Linguistics</t>
-  </si>
-  <si>
     <t>http://dblp.uni-trier.de/db/conf/naacl/</t>
   </si>
   <si>
     <t>TOCHI</t>
   </si>
   <si>
-    <t>ACM Transactions on Computer-Human Interaction</t>
-  </si>
-  <si>
     <t>http://dblp.uni-trier.de/db/journals/tochi/</t>
   </si>
   <si>
@@ -5219,9 +5195,6 @@
   </si>
   <si>
     <t>Cognition</t>
-  </si>
-  <si>
-    <t>Cognition：International Journal of Cognitive Science</t>
   </si>
   <si>
     <t>http://www.journals.elsevier.com/cognition/</t>
@@ -5624,6 +5597,42 @@
   </si>
   <si>
     <t>Performance Evaluation: An International Journal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cognition: International Journal of Cognitive Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Mining and Knowledge Discovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Conference on Web Services(Research Track)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Transactions on Computer-Human Interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Annual Conference of the North American Chapter of the Association for Computational Linguistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACM Transactions on Knowledge Discovery from Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conference on Management of Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knowledge Discovery and Data Mining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>International Conference on Data Engineering</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6040,8 +6049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471BAAA0-56FA-47F6-A51B-3C302E82BABA}">
   <dimension ref="A1:H613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" workbookViewId="0">
-      <selection activeCell="C588" sqref="C588"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6448,7 +6457,7 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
-        <v>1852</v>
+        <v>1843</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>48</v>
@@ -7405,7 +7414,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1817</v>
+        <v>1808</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>173</v>
@@ -9731,7 +9740,7 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>1851</v>
+        <v>1842</v>
       </c>
       <c r="D143" t="s">
         <v>66</v>
@@ -9930,7 +9939,7 @@
         <v>471</v>
       </c>
       <c r="D151" t="s">
-        <v>1833</v>
+        <v>1824</v>
       </c>
       <c r="E151" t="s">
         <v>472</v>
@@ -9956,7 +9965,7 @@
         <v>474</v>
       </c>
       <c r="D152" t="s">
-        <v>1834</v>
+        <v>1825</v>
       </c>
       <c r="E152" t="s">
         <v>475</v>
@@ -9982,7 +9991,7 @@
         <v>477</v>
       </c>
       <c r="D153" t="s">
-        <v>1835</v>
+        <v>1826</v>
       </c>
       <c r="E153" t="s">
         <v>478</v>
@@ -10164,7 +10173,7 @@
         <v>498</v>
       </c>
       <c r="D160" t="s">
-        <v>1836</v>
+        <v>1827</v>
       </c>
       <c r="E160" t="s">
         <v>499</v>
@@ -10372,7 +10381,7 @@
         <v>522</v>
       </c>
       <c r="D168" t="s">
-        <v>1837</v>
+        <v>1828</v>
       </c>
       <c r="E168" t="s">
         <v>523</v>
@@ -10450,7 +10459,7 @@
         <v>531</v>
       </c>
       <c r="D171" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="E171" t="s">
         <v>532</v>
@@ -10710,7 +10719,7 @@
         <v>559</v>
       </c>
       <c r="D181" t="s">
-        <v>1839</v>
+        <v>1830</v>
       </c>
       <c r="E181" t="s">
         <v>560</v>
@@ -11643,7 +11652,7 @@
         <v>668</v>
       </c>
       <c r="D217" t="s">
-        <v>1840</v>
+        <v>1831</v>
       </c>
       <c r="E217" t="s">
         <v>669</v>
@@ -11981,7 +11990,7 @@
         <v>706</v>
       </c>
       <c r="D230" t="s">
-        <v>1841</v>
+        <v>1832</v>
       </c>
       <c r="E230" t="s">
         <v>707</v>
@@ -12163,7 +12172,7 @@
         <v>726</v>
       </c>
       <c r="D237" t="s">
-        <v>1842</v>
+        <v>1833</v>
       </c>
       <c r="E237" t="s">
         <v>727</v>
@@ -12313,16 +12322,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>1843</v>
+        <v>1834</v>
       </c>
       <c r="C243" t="s">
-        <v>743</v>
+        <v>1846</v>
       </c>
       <c r="D243" t="s">
         <v>19</v>
       </c>
       <c r="E243" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F243" t="s">
         <v>296</v>
@@ -12339,16 +12348,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>744</v>
+      </c>
+      <c r="C244" t="s">
         <v>745</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E244" t="s">
         <v>746</v>
-      </c>
-      <c r="D244" t="s">
-        <v>1844</v>
-      </c>
-      <c r="E244" t="s">
-        <v>747</v>
       </c>
       <c r="F244" t="s">
         <v>296</v>
@@ -12365,16 +12374,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
+        <v>747</v>
+      </c>
+      <c r="C245" t="s">
         <v>748</v>
-      </c>
-      <c r="C245" t="s">
-        <v>749</v>
       </c>
       <c r="D245" t="s">
         <v>66</v>
       </c>
       <c r="E245" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F245" t="s">
         <v>296</v>
@@ -12391,16 +12400,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
+        <v>750</v>
+      </c>
+      <c r="C246" t="s">
         <v>751</v>
-      </c>
-      <c r="C246" t="s">
-        <v>752</v>
       </c>
       <c r="D246" t="s">
         <v>210</v>
       </c>
       <c r="E246" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F246" t="s">
         <v>296</v>
@@ -12417,16 +12426,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
+        <v>753</v>
+      </c>
+      <c r="C247" t="s">
         <v>754</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E247" t="s">
         <v>755</v>
-      </c>
-      <c r="D247" t="s">
-        <v>1845</v>
-      </c>
-      <c r="E247" t="s">
-        <v>756</v>
       </c>
       <c r="F247" t="s">
         <v>296</v>
@@ -12469,16 +12478,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
+        <v>756</v>
+      </c>
+      <c r="C249" t="s">
         <v>757</v>
-      </c>
-      <c r="C249" t="s">
-        <v>758</v>
       </c>
       <c r="D249" t="s">
         <v>99</v>
       </c>
       <c r="E249" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F249" t="s">
         <v>296</v>
@@ -12495,16 +12504,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
+        <v>759</v>
+      </c>
+      <c r="C250" t="s">
         <v>760</v>
-      </c>
-      <c r="C250" t="s">
-        <v>761</v>
       </c>
       <c r="D250" t="s">
         <v>10</v>
       </c>
       <c r="E250" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F250" t="s">
         <v>315</v>
@@ -12521,16 +12530,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
+        <v>762</v>
+      </c>
+      <c r="C251" t="s">
         <v>763</v>
-      </c>
-      <c r="C251" t="s">
-        <v>764</v>
       </c>
       <c r="D251" t="s">
         <v>10</v>
       </c>
       <c r="E251" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F251" t="s">
         <v>315</v>
@@ -12547,16 +12556,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>765</v>
+      </c>
+      <c r="C252" t="s">
         <v>766</v>
-      </c>
-      <c r="C252" t="s">
-        <v>767</v>
       </c>
       <c r="D252" t="s">
         <v>66</v>
       </c>
       <c r="E252" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F252" t="s">
         <v>315</v>
@@ -12573,16 +12582,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
+        <v>768</v>
+      </c>
+      <c r="C253" t="s">
         <v>769</v>
-      </c>
-      <c r="C253" t="s">
-        <v>770</v>
       </c>
       <c r="D253" t="s">
         <v>19</v>
       </c>
       <c r="E253" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F253" t="s">
         <v>315</v>
@@ -12599,16 +12608,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
+        <v>771</v>
+      </c>
+      <c r="C254" t="s">
         <v>772</v>
-      </c>
-      <c r="C254" t="s">
-        <v>773</v>
       </c>
       <c r="D254" t="s">
         <v>10</v>
       </c>
       <c r="E254" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F254" t="s">
         <v>315</v>
@@ -12625,16 +12634,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
+        <v>774</v>
+      </c>
+      <c r="C255" t="s">
         <v>775</v>
-      </c>
-      <c r="C255" t="s">
-        <v>776</v>
       </c>
       <c r="D255" t="s">
         <v>19</v>
       </c>
       <c r="E255" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F255" t="s">
         <v>315</v>
@@ -12651,16 +12660,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
+        <v>777</v>
+      </c>
+      <c r="C256" t="s">
         <v>778</v>
-      </c>
-      <c r="C256" t="s">
-        <v>779</v>
       </c>
       <c r="D256" t="s">
         <v>19</v>
       </c>
       <c r="E256" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F256" t="s">
         <v>315</v>
@@ -12677,16 +12686,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
+        <v>780</v>
+      </c>
+      <c r="C257" t="s">
         <v>781</v>
-      </c>
-      <c r="C257" t="s">
-        <v>782</v>
       </c>
       <c r="D257" t="s">
         <v>19</v>
       </c>
       <c r="E257" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F257" t="s">
         <v>315</v>
@@ -12703,16 +12712,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
+        <v>783</v>
+      </c>
+      <c r="C258" t="s">
         <v>784</v>
-      </c>
-      <c r="C258" t="s">
-        <v>785</v>
       </c>
       <c r="D258" t="s">
         <v>19</v>
       </c>
       <c r="E258" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F258" t="s">
         <v>315</v>
@@ -12729,16 +12738,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
+        <v>786</v>
+      </c>
+      <c r="C259" t="s">
         <v>787</v>
-      </c>
-      <c r="C259" t="s">
-        <v>788</v>
       </c>
       <c r="D259" t="s">
         <v>19</v>
       </c>
       <c r="E259" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F259" t="s">
         <v>315</v>
@@ -12755,16 +12764,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
+        <v>789</v>
+      </c>
+      <c r="C260" t="s">
         <v>790</v>
-      </c>
-      <c r="C260" t="s">
-        <v>791</v>
       </c>
       <c r="D260" t="s">
         <v>66</v>
       </c>
       <c r="E260" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F260" t="s">
         <v>315</v>
@@ -12781,16 +12790,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>792</v>
+      </c>
+      <c r="C261" t="s">
         <v>793</v>
-      </c>
-      <c r="C261" t="s">
-        <v>794</v>
       </c>
       <c r="D261" t="s">
         <v>66</v>
       </c>
       <c r="E261" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F261" t="s">
         <v>315</v>
@@ -12807,16 +12816,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
+        <v>795</v>
+      </c>
+      <c r="C262" t="s">
         <v>796</v>
-      </c>
-      <c r="C262" t="s">
-        <v>797</v>
       </c>
       <c r="D262" t="s">
         <v>19</v>
       </c>
       <c r="E262" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F262" t="s">
         <v>315</v>
@@ -12833,16 +12842,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
+        <v>798</v>
+      </c>
+      <c r="C263" t="s">
         <v>799</v>
-      </c>
-      <c r="C263" t="s">
-        <v>800</v>
       </c>
       <c r="D263" t="s">
         <v>246</v>
       </c>
       <c r="E263" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F263" t="s">
         <v>315</v>
@@ -12859,16 +12868,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
+        <v>801</v>
+      </c>
+      <c r="C264" t="s">
         <v>802</v>
       </c>
-      <c r="C264" t="s">
+      <c r="D264" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E264" t="s">
         <v>803</v>
-      </c>
-      <c r="D264" t="s">
-        <v>1846</v>
-      </c>
-      <c r="E264" t="s">
-        <v>804</v>
       </c>
       <c r="F264" t="s">
         <v>315</v>
@@ -12885,16 +12894,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
+        <v>804</v>
+      </c>
+      <c r="C265" t="s">
         <v>805</v>
-      </c>
-      <c r="C265" t="s">
-        <v>806</v>
       </c>
       <c r="D265" t="s">
         <v>19</v>
       </c>
       <c r="E265" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F265" t="s">
         <v>315</v>
@@ -12911,16 +12920,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
+        <v>807</v>
+      </c>
+      <c r="C266" t="s">
         <v>808</v>
-      </c>
-      <c r="C266" t="s">
-        <v>809</v>
       </c>
       <c r="D266" t="s">
         <v>66</v>
       </c>
       <c r="E266" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F266" t="s">
         <v>315</v>
@@ -12937,16 +12946,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
+        <v>810</v>
+      </c>
+      <c r="C267" t="s">
         <v>811</v>
-      </c>
-      <c r="C267" t="s">
-        <v>812</v>
       </c>
       <c r="D267" t="s">
         <v>66</v>
       </c>
       <c r="E267" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F267" t="s">
         <v>315</v>
@@ -12963,16 +12972,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
+        <v>813</v>
+      </c>
+      <c r="C268" t="s">
         <v>814</v>
-      </c>
-      <c r="C268" t="s">
-        <v>815</v>
       </c>
       <c r="D268" t="s">
         <v>66</v>
       </c>
       <c r="E268" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F268" t="s">
         <v>315</v>
@@ -12989,16 +12998,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
+        <v>816</v>
+      </c>
+      <c r="C269" t="s">
         <v>817</v>
-      </c>
-      <c r="C269" t="s">
-        <v>818</v>
       </c>
       <c r="D269" t="s">
         <v>66</v>
       </c>
       <c r="E269" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F269" t="s">
         <v>315</v>
@@ -13015,16 +13024,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
+        <v>819</v>
+      </c>
+      <c r="C270" t="s">
         <v>820</v>
-      </c>
-      <c r="C270" t="s">
-        <v>821</v>
       </c>
       <c r="D270" t="s">
         <v>66</v>
       </c>
       <c r="E270" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F270" t="s">
         <v>315</v>
@@ -13041,16 +13050,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
+        <v>822</v>
+      </c>
+      <c r="C271" t="s">
         <v>823</v>
-      </c>
-      <c r="C271" t="s">
-        <v>824</v>
       </c>
       <c r="D271" t="s">
         <v>19</v>
       </c>
       <c r="E271" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F271" t="s">
         <v>315</v>
@@ -13067,16 +13076,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
+        <v>825</v>
+      </c>
+      <c r="C272" t="s">
         <v>826</v>
-      </c>
-      <c r="C272" t="s">
-        <v>827</v>
       </c>
       <c r="D272" t="s">
         <v>109</v>
       </c>
       <c r="E272" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F272" t="s">
         <v>315</v>
@@ -13093,16 +13102,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
+        <v>828</v>
+      </c>
+      <c r="C273" t="s">
         <v>829</v>
-      </c>
-      <c r="C273" t="s">
-        <v>830</v>
       </c>
       <c r="D273" t="s">
         <v>66</v>
       </c>
       <c r="E273" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F273" t="s">
         <v>315</v>
@@ -13119,16 +13128,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
+        <v>831</v>
+      </c>
+      <c r="C274" t="s">
         <v>832</v>
-      </c>
-      <c r="C274" t="s">
-        <v>833</v>
       </c>
       <c r="D274" t="s">
         <v>19</v>
       </c>
       <c r="E274" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F274" t="s">
         <v>315</v>
@@ -13145,19 +13154,19 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
+        <v>834</v>
+      </c>
+      <c r="C275" t="s">
         <v>835</v>
-      </c>
-      <c r="C275" t="s">
-        <v>836</v>
       </c>
       <c r="D275" t="s">
         <v>10</v>
       </c>
       <c r="E275" t="s">
+        <v>836</v>
+      </c>
+      <c r="F275" t="s">
         <v>837</v>
-      </c>
-      <c r="F275" t="s">
-        <v>838</v>
       </c>
       <c r="G275" t="s">
         <v>286</v>
@@ -13171,19 +13180,19 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
+        <v>838</v>
+      </c>
+      <c r="C276" t="s">
         <v>839</v>
-      </c>
-      <c r="C276" t="s">
-        <v>840</v>
       </c>
       <c r="D276" t="s">
         <v>10</v>
       </c>
       <c r="E276" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F276" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G276" t="s">
         <v>286</v>
@@ -13197,19 +13206,19 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
+        <v>841</v>
+      </c>
+      <c r="C277" t="s">
         <v>842</v>
-      </c>
-      <c r="C277" t="s">
-        <v>843</v>
       </c>
       <c r="D277" t="s">
         <v>19</v>
       </c>
       <c r="E277" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F277" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G277" t="s">
         <v>286</v>
@@ -13223,19 +13232,19 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
+        <v>844</v>
+      </c>
+      <c r="C278" t="s">
         <v>845</v>
-      </c>
-      <c r="C278" t="s">
-        <v>846</v>
       </c>
       <c r="D278" t="s">
         <v>66</v>
       </c>
       <c r="E278" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F278" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G278" t="s">
         <v>286</v>
@@ -13249,16 +13258,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C279" t="s">
-        <v>849</v>
+        <v>1849</v>
       </c>
       <c r="D279" t="s">
         <v>10</v>
       </c>
       <c r="E279" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F279" t="s">
         <v>296</v>
@@ -13275,16 +13284,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C280" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D280" t="s">
         <v>10</v>
       </c>
       <c r="E280" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F280" t="s">
         <v>296</v>
@@ -13301,16 +13310,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C281" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D281" t="s">
         <v>48</v>
       </c>
       <c r="E281" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F281" t="s">
         <v>296</v>
@@ -13327,16 +13336,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C282" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D282" t="s">
         <v>48</v>
       </c>
       <c r="E282" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F282" t="s">
         <v>296</v>
@@ -13353,16 +13362,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C283" t="s">
-        <v>861</v>
+        <v>1845</v>
       </c>
       <c r="D283" t="s">
         <v>66</v>
       </c>
       <c r="E283" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F283" t="s">
         <v>296</v>
@@ -13379,16 +13388,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C284" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D284" t="s">
-        <v>1847</v>
+        <v>1838</v>
       </c>
       <c r="E284" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F284" t="s">
         <v>296</v>
@@ -13405,13 +13414,13 @@
         <v>284</v>
       </c>
       <c r="C285" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D285" t="s">
         <v>66</v>
       </c>
       <c r="E285" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F285" t="s">
         <v>296</v>
@@ -13428,16 +13437,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C286" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D286" t="s">
         <v>48</v>
       </c>
       <c r="E286" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F286" t="s">
         <v>296</v>
@@ -13454,13 +13463,13 @@
         <v>286</v>
       </c>
       <c r="C287" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D287" t="s">
         <v>48</v>
       </c>
       <c r="E287" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F287" t="s">
         <v>296</v>
@@ -13477,16 +13486,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C288" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D288" t="s">
         <v>48</v>
       </c>
       <c r="E288" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="F288" t="s">
         <v>296</v>
@@ -13503,16 +13512,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
+        <v>873</v>
+      </c>
+      <c r="C289" t="s">
+        <v>874</v>
+      </c>
+      <c r="D289" t="s">
+        <v>875</v>
+      </c>
+      <c r="E289" t="s">
         <v>876</v>
-      </c>
-      <c r="C289" t="s">
-        <v>877</v>
-      </c>
-      <c r="D289" t="s">
-        <v>878</v>
-      </c>
-      <c r="E289" t="s">
-        <v>879</v>
       </c>
       <c r="F289" t="s">
         <v>296</v>
@@ -13529,16 +13538,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C290" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D290" t="s">
         <v>48</v>
       </c>
       <c r="E290" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F290" t="s">
         <v>296</v>
@@ -13555,16 +13564,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C291" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D291" t="s">
         <v>66</v>
       </c>
       <c r="E291" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F291" t="s">
         <v>296</v>
@@ -13581,16 +13590,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C292" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D292" t="s">
         <v>66</v>
       </c>
       <c r="E292" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F292" t="s">
         <v>315</v>
@@ -13607,16 +13616,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C293" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D293" t="s">
         <v>48</v>
       </c>
       <c r="E293" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F293" t="s">
         <v>315</v>
@@ -13633,16 +13642,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C294" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D294" t="s">
         <v>48</v>
       </c>
       <c r="E294" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F294" t="s">
         <v>315</v>
@@ -13659,16 +13668,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C295" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D295" t="s">
         <v>66</v>
       </c>
       <c r="E295" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F295" t="s">
         <v>315</v>
@@ -13685,16 +13694,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C296" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D296" t="s">
         <v>659</v>
       </c>
       <c r="E296" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F296" t="s">
         <v>315</v>
@@ -13711,16 +13720,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
+        <v>898</v>
+      </c>
+      <c r="C297" t="s">
+        <v>899</v>
+      </c>
+      <c r="D297" t="s">
+        <v>900</v>
+      </c>
+      <c r="E297" t="s">
         <v>901</v>
-      </c>
-      <c r="C297" t="s">
-        <v>902</v>
-      </c>
-      <c r="D297" t="s">
-        <v>903</v>
-      </c>
-      <c r="E297" t="s">
-        <v>904</v>
       </c>
       <c r="F297" t="s">
         <v>315</v>
@@ -13737,16 +13746,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C298" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D298" t="s">
         <v>62</v>
       </c>
       <c r="E298" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F298" t="s">
         <v>315</v>
@@ -13763,16 +13772,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
+        <v>905</v>
+      </c>
+      <c r="C299" t="s">
+        <v>906</v>
+      </c>
+      <c r="D299" t="s">
+        <v>907</v>
+      </c>
+      <c r="E299" t="s">
         <v>908</v>
-      </c>
-      <c r="C299" t="s">
-        <v>909</v>
-      </c>
-      <c r="D299" t="s">
-        <v>910</v>
-      </c>
-      <c r="E299" t="s">
-        <v>911</v>
       </c>
       <c r="F299" t="s">
         <v>315</v>
@@ -13789,16 +13798,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C300" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D300" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E300" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F300" t="s">
         <v>315</v>
@@ -13815,16 +13824,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
+        <v>912</v>
+      </c>
+      <c r="C301" t="s">
+        <v>913</v>
+      </c>
+      <c r="D301" t="s">
+        <v>914</v>
+      </c>
+      <c r="E301" t="s">
         <v>915</v>
-      </c>
-      <c r="C301" t="s">
-        <v>916</v>
-      </c>
-      <c r="D301" t="s">
-        <v>917</v>
-      </c>
-      <c r="E301" t="s">
-        <v>918</v>
       </c>
       <c r="F301" t="s">
         <v>315</v>
@@ -13841,16 +13850,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
+        <v>916</v>
+      </c>
+      <c r="C302" t="s">
+        <v>917</v>
+      </c>
+      <c r="D302" t="s">
+        <v>918</v>
+      </c>
+      <c r="E302" t="s">
         <v>919</v>
-      </c>
-      <c r="C302" t="s">
-        <v>920</v>
-      </c>
-      <c r="D302" t="s">
-        <v>921</v>
-      </c>
-      <c r="E302" t="s">
-        <v>922</v>
       </c>
       <c r="F302" t="s">
         <v>315</v>
@@ -13867,16 +13876,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
+        <v>920</v>
+      </c>
+      <c r="C303" t="s">
+        <v>921</v>
+      </c>
+      <c r="D303" t="s">
+        <v>922</v>
+      </c>
+      <c r="E303" t="s">
         <v>923</v>
-      </c>
-      <c r="C303" t="s">
-        <v>924</v>
-      </c>
-      <c r="D303" t="s">
-        <v>925</v>
-      </c>
-      <c r="E303" t="s">
-        <v>926</v>
       </c>
       <c r="F303" t="s">
         <v>315</v>
@@ -13893,16 +13902,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C304" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D304" t="s">
         <v>66</v>
       </c>
       <c r="E304" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F304" t="s">
         <v>315</v>
@@ -13919,16 +13928,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C305" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D305" t="s">
         <v>48</v>
       </c>
       <c r="E305" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F305" t="s">
         <v>315</v>
@@ -13945,16 +13954,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C306" t="s">
-        <v>934</v>
+        <v>1850</v>
       </c>
       <c r="D306" t="s">
         <v>10</v>
       </c>
       <c r="E306" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="F306" t="s">
         <v>285</v>
@@ -13971,16 +13980,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C307" t="s">
-        <v>937</v>
+        <v>1851</v>
       </c>
       <c r="D307" t="s">
         <v>10</v>
       </c>
       <c r="E307" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F307" t="s">
         <v>285</v>
@@ -13997,16 +14006,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="C308" t="s">
-        <v>940</v>
+        <v>1852</v>
       </c>
       <c r="D308" t="s">
         <v>19</v>
       </c>
       <c r="E308" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="F308" t="s">
         <v>285</v>
@@ -14023,16 +14032,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C309" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="D309" t="s">
         <v>10</v>
       </c>
       <c r="E309" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F309" t="s">
         <v>285</v>
@@ -14049,16 +14058,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C310" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="D310" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="E310" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="F310" t="s">
         <v>285</v>
@@ -14075,16 +14084,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="C311" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D311" t="s">
         <v>10</v>
       </c>
       <c r="E311" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="F311" t="s">
         <v>296</v>
@@ -14101,16 +14110,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="C312" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="D312" t="s">
         <v>10</v>
       </c>
       <c r="E312" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="F312" t="s">
         <v>296</v>
@@ -14127,16 +14136,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C313" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="D313" t="s">
         <v>10</v>
       </c>
       <c r="E313" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="F313" t="s">
         <v>296</v>
@@ -14153,16 +14162,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C314" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="D314" t="s">
         <v>66</v>
       </c>
       <c r="E314" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F314" t="s">
         <v>296</v>
@@ -14179,16 +14188,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="C315" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="D315" t="s">
         <v>66</v>
       </c>
       <c r="E315" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F315" t="s">
         <v>296</v>
@@ -14205,16 +14214,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="C316" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="D316" t="s">
         <v>19</v>
       </c>
       <c r="E316" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="F316" t="s">
         <v>296</v>
@@ -14231,16 +14240,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="C317" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="D317" t="s">
         <v>19</v>
       </c>
       <c r="E317" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="F317" t="s">
         <v>296</v>
@@ -14257,16 +14266,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="C318" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="D318" t="s">
         <v>66</v>
       </c>
       <c r="E318" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="F318" t="s">
         <v>296</v>
@@ -14283,16 +14292,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="C319" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="D319" t="s">
         <v>66</v>
       </c>
       <c r="E319" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F319" t="s">
         <v>296</v>
@@ -14309,16 +14318,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="C320" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="D320" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="E320" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="F320" t="s">
         <v>296</v>
@@ -14335,16 +14344,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C321" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D321" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="E321" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="F321" t="s">
         <v>296</v>
@@ -14361,16 +14370,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C322" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="D322" t="s">
         <v>66</v>
       </c>
       <c r="E322" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="F322" t="s">
         <v>315</v>
@@ -14387,16 +14396,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="C323" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D323" t="s">
         <v>66</v>
       </c>
       <c r="E323" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F323" t="s">
         <v>315</v>
@@ -14413,16 +14422,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C324" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D324" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E324" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="F324" t="s">
         <v>315</v>
@@ -14439,16 +14448,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C325" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D325" t="s">
         <v>48</v>
       </c>
       <c r="E325" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="F325" t="s">
         <v>315</v>
@@ -14465,16 +14474,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="C326" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="D326" t="s">
         <v>10</v>
       </c>
       <c r="E326" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F326" t="s">
         <v>315</v>
@@ -14491,16 +14500,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C327" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D327" t="s">
         <v>66</v>
       </c>
       <c r="E327" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="F327" t="s">
         <v>315</v>
@@ -14517,16 +14526,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C328" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D328" t="s">
         <v>19</v>
       </c>
       <c r="E328" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F328" t="s">
         <v>315</v>
@@ -14543,16 +14552,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C329" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D329" t="s">
         <v>19</v>
       </c>
       <c r="E329" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="F329" t="s">
         <v>315</v>
@@ -14569,16 +14578,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C330" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="D330" t="s">
         <v>66</v>
       </c>
       <c r="E330" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F330" t="s">
         <v>315</v>
@@ -14595,16 +14604,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C331" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D331" t="s">
         <v>66</v>
       </c>
       <c r="E331" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="F331" t="s">
         <v>315</v>
@@ -14621,16 +14630,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="C332" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D332" t="s">
         <v>66</v>
       </c>
       <c r="E332" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F332" t="s">
         <v>315</v>
@@ -14647,16 +14656,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="C333" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D333" t="s">
         <v>66</v>
       </c>
       <c r="E333" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="F333" t="s">
         <v>315</v>
@@ -14673,16 +14682,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="C334" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D334" t="s">
         <v>19</v>
       </c>
       <c r="E334" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F334" t="s">
         <v>285</v>
@@ -14699,16 +14708,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="C335" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="D335" t="s">
         <v>48</v>
       </c>
       <c r="E335" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="F335" t="s">
         <v>285</v>
@@ -14725,16 +14734,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="C336" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="D336" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E336" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F336" t="s">
         <v>285</v>
@@ -14751,16 +14760,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="C337" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D337" t="s">
         <v>10</v>
       </c>
       <c r="E337" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="F337" t="s">
         <v>296</v>
@@ -14777,16 +14786,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C338" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="D338" t="s">
         <v>10</v>
       </c>
       <c r="E338" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="F338" t="s">
         <v>296</v>
@@ -14803,16 +14812,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="C339" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="D339" t="s">
         <v>10</v>
       </c>
       <c r="E339" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F339" t="s">
         <v>296</v>
@@ -14829,16 +14838,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="C340" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D340" t="s">
         <v>66</v>
       </c>
       <c r="E340" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="F340" t="s">
         <v>296</v>
@@ -14858,13 +14867,13 @@
         <v>316</v>
       </c>
       <c r="C341" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D341" t="s">
         <v>66</v>
       </c>
       <c r="E341" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="F341" t="s">
         <v>296</v>
@@ -14881,16 +14890,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="C342" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D342" t="s">
         <v>66</v>
       </c>
       <c r="E342" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="F342" t="s">
         <v>296</v>
@@ -14907,16 +14916,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="C343" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="D343" t="s">
         <v>66</v>
       </c>
       <c r="E343" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F343" t="s">
         <v>296</v>
@@ -14933,16 +14942,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="C344" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="D344" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E344" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="F344" t="s">
         <v>296</v>
@@ -14959,16 +14968,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="C345" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D345" t="s">
         <v>48</v>
       </c>
       <c r="E345" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="F345" t="s">
         <v>296</v>
@@ -14985,16 +14994,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="C346" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="D346" t="s">
         <v>66</v>
       </c>
       <c r="E346" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="F346" t="s">
         <v>296</v>
@@ -15011,16 +15020,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="C347" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="D347" t="s">
         <v>48</v>
       </c>
       <c r="E347" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="F347" t="s">
         <v>296</v>
@@ -15037,16 +15046,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="C348" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="D348" t="s">
         <v>632</v>
       </c>
       <c r="E348" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="F348" t="s">
         <v>296</v>
@@ -15063,16 +15072,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="C349" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="D349" t="s">
         <v>48</v>
       </c>
       <c r="E349" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="F349" t="s">
         <v>296</v>
@@ -15089,16 +15098,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="C350" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="D350" t="s">
         <v>66</v>
       </c>
       <c r="E350" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="F350" t="s">
         <v>315</v>
@@ -15115,16 +15124,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C351" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="D351" t="s">
         <v>48</v>
       </c>
       <c r="E351" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="F351" t="s">
         <v>315</v>
@@ -15141,16 +15150,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="C352" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="D352" t="s">
         <v>48</v>
       </c>
       <c r="E352" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="F352" t="s">
         <v>315</v>
@@ -15167,16 +15176,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="C353" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D353" t="s">
         <v>461</v>
       </c>
       <c r="E353" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="F353" t="s">
         <v>315</v>
@@ -15193,16 +15202,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C354" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="D354" t="s">
         <v>66</v>
       </c>
       <c r="E354" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="F354" t="s">
         <v>315</v>
@@ -15219,16 +15228,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C355" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D355" t="s">
         <v>48</v>
       </c>
       <c r="E355" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F355" t="s">
         <v>315</v>
@@ -15245,16 +15254,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C356" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D356" t="s">
         <v>48</v>
       </c>
       <c r="E356" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F356" t="s">
         <v>315</v>
@@ -15271,16 +15280,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="C357" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="D357" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E357" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F357" t="s">
         <v>315</v>
@@ -15297,16 +15306,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C358" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="D358" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="E358" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="F358" t="s">
         <v>315</v>
@@ -15323,16 +15332,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="C359" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="D359" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="E359" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F359" t="s">
         <v>315</v>
@@ -15349,16 +15358,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="C360" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="D360" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E360" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F360" t="s">
         <v>315</v>
@@ -15375,13 +15384,13 @@
         <v>360</v>
       </c>
       <c r="C361" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D361" t="s">
         <v>66</v>
       </c>
       <c r="E361" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F361" t="s">
         <v>315</v>
@@ -15398,16 +15407,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="C362" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="D362" t="s">
         <v>10</v>
       </c>
       <c r="E362" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="F362" t="s">
         <v>285</v>
@@ -15424,16 +15433,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="C363" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="D363" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E363" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F363" t="s">
         <v>285</v>
@@ -15450,16 +15459,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C364" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="D364" t="s">
         <v>66</v>
       </c>
       <c r="E364" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="F364" t="s">
         <v>285</v>
@@ -15476,16 +15485,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C365" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="D365" t="s">
         <v>19</v>
       </c>
       <c r="E365" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="F365" t="s">
         <v>285</v>
@@ -15502,16 +15511,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="C366" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="D366" t="s">
         <v>19</v>
       </c>
       <c r="E366" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="F366" t="s">
         <v>285</v>
@@ -15528,16 +15537,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="C367" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="D367" t="s">
         <v>10</v>
       </c>
       <c r="E367" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="F367" t="s">
         <v>296</v>
@@ -15554,16 +15563,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="C368" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="D368" t="s">
         <v>66</v>
       </c>
       <c r="E368" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="F368" t="s">
         <v>296</v>
@@ -15580,16 +15589,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="C369" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D369" t="s">
         <v>19</v>
       </c>
       <c r="E369" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="F369" t="s">
         <v>296</v>
@@ -15606,16 +15615,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="C370" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="D370" t="s">
         <v>66</v>
       </c>
       <c r="E370" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="F370" t="s">
         <v>296</v>
@@ -15632,16 +15641,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="C371" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="D371" t="s">
         <v>66</v>
       </c>
       <c r="E371" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="F371" t="s">
         <v>296</v>
@@ -15658,16 +15667,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C372" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="D372" t="s">
         <v>66</v>
       </c>
       <c r="E372" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="F372" t="s">
         <v>296</v>
@@ -15684,16 +15693,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="C373" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="D373" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="E373" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="F373" t="s">
         <v>296</v>
@@ -15710,16 +15719,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="C374" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="D374" t="s">
         <v>66</v>
       </c>
       <c r="E374" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F374" t="s">
         <v>296</v>
@@ -15736,16 +15745,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="C375" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="D375" t="s">
         <v>66</v>
       </c>
       <c r="E375" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F375" t="s">
         <v>315</v>
@@ -15762,16 +15771,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="C376" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="D376" t="s">
         <v>10</v>
       </c>
       <c r="E376" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="F376" t="s">
         <v>315</v>
@@ -15788,16 +15797,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="C377" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="D377" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="E377" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="F377" t="s">
         <v>315</v>
@@ -15814,16 +15823,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="C378" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="D378" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="E378" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="F378" t="s">
         <v>315</v>
@@ -15840,16 +15849,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C379" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="D379" t="s">
         <v>66</v>
       </c>
       <c r="E379" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="F379" t="s">
         <v>315</v>
@@ -15866,16 +15875,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="C380" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="D380" t="s">
         <v>66</v>
       </c>
       <c r="E380" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="F380" t="s">
         <v>315</v>
@@ -15892,16 +15901,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="C381" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="D381" t="s">
         <v>66</v>
       </c>
       <c r="E381" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="F381" t="s">
         <v>315</v>
@@ -15918,16 +15927,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C382" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="D382" t="s">
         <v>66</v>
       </c>
       <c r="E382" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="F382" t="s">
         <v>315</v>
@@ -15944,16 +15953,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="C383" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="D383" t="s">
         <v>66</v>
       </c>
       <c r="E383" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="F383" t="s">
         <v>315</v>
@@ -15970,16 +15979,16 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="C384" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="D384" t="s">
         <v>66</v>
       </c>
       <c r="E384" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="F384" t="s">
         <v>315</v>
@@ -15996,16 +16005,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C385" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="D385" t="s">
         <v>10</v>
       </c>
       <c r="E385" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="F385" t="s">
         <v>285</v>
@@ -16022,16 +16031,16 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="C386" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="D386" t="s">
         <v>19</v>
       </c>
       <c r="E386" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="F386" t="s">
         <v>285</v>
@@ -16048,16 +16057,16 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="C387" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="D387" t="s">
         <v>19</v>
       </c>
       <c r="E387" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="F387" t="s">
         <v>285</v>
@@ -16077,7 +16086,7 @@
         <v>298</v>
       </c>
       <c r="C388" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="D388" t="s">
         <v>10</v>
@@ -16100,16 +16109,16 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="C389" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="D389" t="s">
         <v>48</v>
       </c>
       <c r="E389" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="F389" t="s">
         <v>296</v>
@@ -16126,16 +16135,16 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="C390" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="D390" t="s">
         <v>62</v>
       </c>
       <c r="E390" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="F390" t="s">
         <v>296</v>
@@ -16152,16 +16161,16 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="C391" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="D391" t="s">
         <v>48</v>
       </c>
       <c r="E391" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="F391" t="s">
         <v>296</v>
@@ -16178,16 +16187,16 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="C392" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="D392" t="s">
         <v>48</v>
       </c>
       <c r="E392" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="F392" t="s">
         <v>296</v>
@@ -16204,16 +16213,16 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="C393" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="D393" t="s">
         <v>19</v>
       </c>
       <c r="E393" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="F393" t="s">
         <v>296</v>
@@ -16230,16 +16239,16 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="C394" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="D394" t="s">
         <v>19</v>
       </c>
       <c r="E394" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F394" t="s">
         <v>296</v>
@@ -16256,16 +16265,16 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="C395" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="D395" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="E395" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="F395" t="s">
         <v>296</v>
@@ -16282,16 +16291,16 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="C396" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="D396" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E396" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="F396" t="s">
         <v>296</v>
@@ -16308,16 +16317,16 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="C397" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="D397" t="s">
         <v>48</v>
       </c>
       <c r="E397" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="F397" t="s">
         <v>296</v>
@@ -16334,16 +16343,16 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="C398" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="D398" t="s">
         <v>48</v>
       </c>
       <c r="E398" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="F398" t="s">
         <v>315</v>
@@ -16360,16 +16369,16 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="C399" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="D399" t="s">
         <v>62</v>
       </c>
       <c r="E399" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="F399" t="s">
         <v>315</v>
@@ -16386,16 +16395,16 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="C400" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="D400" t="s">
         <v>48</v>
       </c>
       <c r="E400" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="F400" t="s">
         <v>315</v>
@@ -16412,16 +16421,16 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="C401" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="D401" t="s">
         <v>66</v>
       </c>
       <c r="E401" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="F401" t="s">
         <v>315</v>
@@ -16438,16 +16447,16 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="C402" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="D402" t="s">
         <v>19</v>
       </c>
       <c r="E402" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="F402" t="s">
         <v>315</v>
@@ -16464,16 +16473,16 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="C403" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="D403" t="s">
         <v>323</v>
       </c>
       <c r="E403" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="F403" t="s">
         <v>315</v>
@@ -16490,16 +16499,16 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="C404" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="D404" t="s">
         <v>48</v>
       </c>
       <c r="E404" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="F404" t="s">
         <v>315</v>
@@ -16516,16 +16525,16 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="C405" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="D405" t="s">
         <v>66</v>
       </c>
       <c r="E405" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="F405" t="s">
         <v>315</v>
@@ -16542,16 +16551,16 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="C406" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="D406" t="s">
         <v>66</v>
       </c>
       <c r="E406" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="F406" t="s">
         <v>315</v>
@@ -16568,13 +16577,13 @@
         <v>406</v>
       </c>
       <c r="C407" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="D407" t="s">
         <v>48</v>
       </c>
       <c r="E407" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="F407" t="s">
         <v>315</v>
@@ -16591,16 +16600,16 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C408" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="D408" t="s">
         <v>48</v>
       </c>
       <c r="E408" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="F408" t="s">
         <v>315</v>
@@ -16617,16 +16626,16 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="C409" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="D409" t="s">
         <v>66</v>
       </c>
       <c r="E409" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="F409" t="s">
         <v>315</v>
@@ -16643,16 +16652,16 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="C410" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="D410" t="s">
         <v>10</v>
       </c>
       <c r="E410" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="F410" t="s">
         <v>285</v>
@@ -16669,16 +16678,16 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="C411" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="D411" t="s">
         <v>10</v>
       </c>
       <c r="E411" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="F411" t="s">
         <v>285</v>
@@ -16695,16 +16704,16 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="C412" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="D412" t="s">
         <v>19</v>
       </c>
       <c r="E412" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="F412" t="s">
         <v>285</v>
@@ -16721,16 +16730,16 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="C413" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="D413" t="s">
         <v>19</v>
       </c>
       <c r="E413" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="F413" t="s">
         <v>285</v>
@@ -16747,16 +16756,16 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="C414" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="D414" t="s">
         <v>10</v>
       </c>
       <c r="E414" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="F414" t="s">
         <v>296</v>
@@ -16773,16 +16782,16 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="C415" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="D415" t="s">
         <v>10</v>
       </c>
       <c r="E415" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="F415" t="s">
         <v>296</v>
@@ -16799,16 +16808,16 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="C416" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="D416" t="s">
         <v>10</v>
       </c>
       <c r="E416" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="F416" t="s">
         <v>296</v>
@@ -16825,16 +16834,16 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="C417" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="D417" t="s">
         <v>19</v>
       </c>
       <c r="E417" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="F417" t="s">
         <v>296</v>
@@ -16851,16 +16860,16 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="C418" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="D418" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="E418" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="F418" t="s">
         <v>296</v>
@@ -16877,16 +16886,16 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="C419" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="D419" t="s">
         <v>10</v>
       </c>
       <c r="E419" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="F419" t="s">
         <v>296</v>
@@ -16903,16 +16912,16 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="C420" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="D420" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="E420" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="F420" t="s">
         <v>296</v>
@@ -16929,16 +16938,16 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="C421" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="D421" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="E421" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="F421" t="s">
         <v>296</v>
@@ -16955,16 +16964,16 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="C422" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="D422" t="s">
         <v>19</v>
       </c>
       <c r="E422" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="F422" t="s">
         <v>296</v>
@@ -16981,16 +16990,16 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="C423" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="D423" t="s">
         <v>19</v>
       </c>
       <c r="E423" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="F423" t="s">
         <v>296</v>
@@ -17007,16 +17016,16 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="C424" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="D424" t="s">
         <v>109</v>
       </c>
       <c r="E424" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="F424" t="s">
         <v>296</v>
@@ -17033,16 +17042,16 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="C425" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="D425" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="E425" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="F425" t="s">
         <v>296</v>
@@ -17059,16 +17068,16 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C426" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="D426" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="E426" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="F426" t="s">
         <v>296</v>
@@ -17085,13 +17094,13 @@
         <v>426</v>
       </c>
       <c r="C427" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="D427" t="s">
         <v>10</v>
       </c>
       <c r="E427" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="F427" t="s">
         <v>315</v>
@@ -17108,16 +17117,16 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="C428" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="D428" t="s">
         <v>62</v>
       </c>
       <c r="E428" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="F428" t="s">
         <v>315</v>
@@ -17134,16 +17143,16 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="C429" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="D429" t="s">
         <v>66</v>
       </c>
       <c r="E429" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="F429" t="s">
         <v>315</v>
@@ -17160,13 +17169,13 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>1818</v>
+        <v>1809</v>
       </c>
       <c r="C430" t="s">
-        <v>1850</v>
+        <v>1841</v>
       </c>
       <c r="E430" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="F430" t="s">
         <v>315</v>
@@ -17183,16 +17192,16 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C431" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="D431" t="s">
         <v>48</v>
       </c>
       <c r="E431" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="F431" t="s">
         <v>315</v>
@@ -17209,16 +17218,16 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C432" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="D432" t="s">
         <v>19</v>
       </c>
       <c r="E432" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="F432" t="s">
         <v>315</v>
@@ -17235,16 +17244,16 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="C433" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="D433" t="s">
         <v>19</v>
       </c>
       <c r="E433" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="F433" t="s">
         <v>315</v>
@@ -17261,16 +17270,16 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="C434" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="D434" t="s">
         <v>19</v>
       </c>
       <c r="E434" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="F434" t="s">
         <v>315</v>
@@ -17287,16 +17296,16 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="C435" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="D435" t="s">
         <v>19</v>
       </c>
       <c r="E435" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="F435" t="s">
         <v>315</v>
@@ -17313,16 +17322,16 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="C436" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="D436" t="s">
         <v>66</v>
       </c>
       <c r="E436" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="F436" t="s">
         <v>315</v>
@@ -17339,16 +17348,16 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="C437" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="D437" t="s">
         <v>66</v>
       </c>
       <c r="E437" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="F437" t="s">
         <v>315</v>
@@ -17365,16 +17374,16 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="C438" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="D438" t="s">
         <v>19</v>
       </c>
       <c r="E438" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="F438" t="s">
         <v>315</v>
@@ -17391,16 +17400,16 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="C439" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="D439" t="s">
         <v>48</v>
       </c>
       <c r="E439" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="F439" t="s">
         <v>285</v>
@@ -17417,16 +17426,16 @@
         <v>439</v>
       </c>
       <c r="B440" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="C440" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="D440" t="s">
         <v>19</v>
       </c>
       <c r="E440" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="F440" t="s">
         <v>285</v>
@@ -17443,16 +17452,16 @@
         <v>440</v>
       </c>
       <c r="B441" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="C441" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="D441" t="s">
         <v>66</v>
       </c>
       <c r="E441" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="F441" t="s">
         <v>285</v>
@@ -17469,16 +17478,16 @@
         <v>441</v>
       </c>
       <c r="B442" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C442" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="D442" t="s">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="E442" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="F442" t="s">
         <v>285</v>
@@ -17495,16 +17504,16 @@
         <v>442</v>
       </c>
       <c r="B443" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="C443" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="D443" t="s">
         <v>10</v>
       </c>
       <c r="E443" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="F443" t="s">
         <v>296</v>
@@ -17521,16 +17530,16 @@
         <v>443</v>
       </c>
       <c r="B444" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C444" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="D444" t="s">
         <v>10</v>
       </c>
       <c r="E444" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="F444" t="s">
         <v>296</v>
@@ -17547,16 +17556,16 @@
         <v>444</v>
       </c>
       <c r="B445" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="C445" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="D445" t="s">
         <v>66</v>
       </c>
       <c r="E445" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="F445" t="s">
         <v>296</v>
@@ -17573,13 +17582,13 @@
         <v>445</v>
       </c>
       <c r="C446" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="D446" t="s">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="E446" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="F446" t="s">
         <v>296</v>
@@ -17596,16 +17605,16 @@
         <v>446</v>
       </c>
       <c r="B447" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="C447" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="D447" t="s">
         <v>48</v>
       </c>
       <c r="E447" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="F447" t="s">
         <v>296</v>
@@ -17622,16 +17631,16 @@
         <v>447</v>
       </c>
       <c r="B448" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C448" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D448" t="s">
         <v>48</v>
       </c>
       <c r="E448" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="F448" t="s">
         <v>296</v>
@@ -17648,13 +17657,13 @@
         <v>448</v>
       </c>
       <c r="C449" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="D449" t="s">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="E449" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="F449" t="s">
         <v>296</v>
@@ -17671,16 +17680,16 @@
         <v>449</v>
       </c>
       <c r="B450" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="C450" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="D450" t="s">
         <v>19</v>
       </c>
       <c r="E450" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="F450" t="s">
         <v>296</v>
@@ -17697,16 +17706,16 @@
         <v>450</v>
       </c>
       <c r="B451" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="C451" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="D451" t="s">
         <v>19</v>
       </c>
       <c r="E451" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="F451" t="s">
         <v>296</v>
@@ -17723,13 +17732,13 @@
         <v>451</v>
       </c>
       <c r="C452" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="D452" t="s">
         <v>19</v>
       </c>
       <c r="E452" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="F452" t="s">
         <v>296</v>
@@ -17746,16 +17755,16 @@
         <v>452</v>
       </c>
       <c r="B453" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C453" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="D453" t="s">
         <v>19</v>
       </c>
       <c r="E453" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="F453" t="s">
         <v>296</v>
@@ -17772,16 +17781,16 @@
         <v>453</v>
       </c>
       <c r="B454" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="C454" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="D454" t="s">
         <v>19</v>
       </c>
       <c r="E454" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="F454" t="s">
         <v>296</v>
@@ -17798,16 +17807,16 @@
         <v>454</v>
       </c>
       <c r="B455" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="C455" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="D455" t="s">
         <v>19</v>
       </c>
       <c r="E455" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="F455" t="s">
         <v>296</v>
@@ -17824,16 +17833,16 @@
         <v>455</v>
       </c>
       <c r="B456" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="C456" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="D456" t="s">
         <v>48</v>
       </c>
       <c r="E456" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="F456" t="s">
         <v>296</v>
@@ -17850,16 +17859,16 @@
         <v>456</v>
       </c>
       <c r="B457" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="C457" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="D457" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="E457" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="F457" t="s">
         <v>296</v>
@@ -17876,13 +17885,13 @@
         <v>457</v>
       </c>
       <c r="C458" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="D458" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E458" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="F458" t="s">
         <v>296</v>
@@ -17899,16 +17908,16 @@
         <v>458</v>
       </c>
       <c r="B459" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="C459" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="D459" t="s">
-        <v>1820</v>
+        <v>1811</v>
       </c>
       <c r="E459" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="F459" t="s">
         <v>296</v>
@@ -17925,13 +17934,13 @@
         <v>459</v>
       </c>
       <c r="C460" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="D460" t="s">
         <v>66</v>
       </c>
       <c r="E460" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="F460" t="s">
         <v>296</v>
@@ -17948,13 +17957,13 @@
         <v>460</v>
       </c>
       <c r="C461" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="D461" t="s">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="E461" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="F461" t="s">
         <v>296</v>
@@ -17971,13 +17980,13 @@
         <v>461</v>
       </c>
       <c r="C462" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="D462" t="s">
         <v>48</v>
       </c>
       <c r="E462" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="F462" t="s">
         <v>296</v>
@@ -17994,13 +18003,13 @@
         <v>462</v>
       </c>
       <c r="C463" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="D463" t="s">
         <v>48</v>
       </c>
       <c r="E463" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="F463" t="s">
         <v>296</v>
@@ -18017,16 +18026,16 @@
         <v>463</v>
       </c>
       <c r="B464" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="C464" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="D464" t="s">
         <v>10</v>
       </c>
       <c r="E464" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="F464" t="s">
         <v>315</v>
@@ -18043,13 +18052,13 @@
         <v>464</v>
       </c>
       <c r="C465" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="D465" t="s">
         <v>66</v>
       </c>
       <c r="E465" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="F465" t="s">
         <v>315</v>
@@ -18066,16 +18075,16 @@
         <v>465</v>
       </c>
       <c r="B466" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="C466" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="D466" t="s">
         <v>48</v>
       </c>
       <c r="E466" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="F466" t="s">
         <v>315</v>
@@ -18092,13 +18101,13 @@
         <v>466</v>
       </c>
       <c r="C467" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="D467" t="s">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="E467" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="F467" t="s">
         <v>315</v>
@@ -18115,13 +18124,13 @@
         <v>467</v>
       </c>
       <c r="C468" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="D468" t="s">
         <v>62</v>
       </c>
       <c r="E468" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="F468" t="s">
         <v>315</v>
@@ -18138,13 +18147,13 @@
         <v>468</v>
       </c>
       <c r="C469" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="D469" t="s">
         <v>48</v>
       </c>
       <c r="E469" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="F469" t="s">
         <v>315</v>
@@ -18161,13 +18170,13 @@
         <v>469</v>
       </c>
       <c r="C470" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="D470" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E470" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="F470" t="s">
         <v>315</v>
@@ -18184,16 +18193,16 @@
         <v>470</v>
       </c>
       <c r="B471" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="C471" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="D471" t="s">
         <v>48</v>
       </c>
       <c r="E471" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="F471" t="s">
         <v>315</v>
@@ -18210,16 +18219,16 @@
         <v>471</v>
       </c>
       <c r="B472" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="C472" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="D472" t="s">
         <v>48</v>
       </c>
       <c r="E472" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="F472" t="s">
         <v>315</v>
@@ -18236,13 +18245,13 @@
         <v>472</v>
       </c>
       <c r="C473" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="D473" t="s">
-        <v>1821</v>
+        <v>1812</v>
       </c>
       <c r="E473" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="F473" t="s">
         <v>315</v>
@@ -18259,16 +18268,16 @@
         <v>473</v>
       </c>
       <c r="B474" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="C474" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="D474" t="s">
         <v>48</v>
       </c>
       <c r="E474" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="F474" t="s">
         <v>315</v>
@@ -18285,13 +18294,13 @@
         <v>474</v>
       </c>
       <c r="C475" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="D475" t="s">
         <v>48</v>
       </c>
       <c r="E475" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="F475" t="s">
         <v>315</v>
@@ -18308,16 +18317,16 @@
         <v>475</v>
       </c>
       <c r="B476" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="C476" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="D476" t="s">
         <v>19</v>
       </c>
       <c r="E476" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="F476" t="s">
         <v>315</v>
@@ -18334,16 +18343,16 @@
         <v>476</v>
       </c>
       <c r="B477" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="C477" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="D477" t="s">
         <v>323</v>
       </c>
       <c r="E477" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="F477" t="s">
         <v>315</v>
@@ -18360,13 +18369,13 @@
         <v>477</v>
       </c>
       <c r="C478" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="D478" t="s">
         <v>323</v>
       </c>
       <c r="E478" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="F478" t="s">
         <v>315</v>
@@ -18383,16 +18392,16 @@
         <v>478</v>
       </c>
       <c r="B479" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="C479" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="D479" t="s">
         <v>48</v>
       </c>
       <c r="E479" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="F479" t="s">
         <v>315</v>
@@ -18409,16 +18418,16 @@
         <v>479</v>
       </c>
       <c r="B480" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="C480" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="D480" t="s">
         <v>48</v>
       </c>
       <c r="E480" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="F480" t="s">
         <v>315</v>
@@ -18435,16 +18444,16 @@
         <v>480</v>
       </c>
       <c r="B481" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="C481" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="D481" t="s">
         <v>659</v>
       </c>
       <c r="E481" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="F481" t="s">
         <v>315</v>
@@ -18461,16 +18470,16 @@
         <v>481</v>
       </c>
       <c r="B482" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C482" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D482" t="s">
         <v>62</v>
       </c>
       <c r="E482" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F482" t="s">
         <v>315</v>
@@ -18487,16 +18496,16 @@
         <v>482</v>
       </c>
       <c r="B483" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="C483" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="D483" t="s">
         <v>659</v>
       </c>
       <c r="E483" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="F483" t="s">
         <v>315</v>
@@ -18513,16 +18522,16 @@
         <v>483</v>
       </c>
       <c r="B484" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="C484" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="D484" t="s">
         <v>659</v>
       </c>
       <c r="E484" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="F484" t="s">
         <v>315</v>
@@ -18539,16 +18548,16 @@
         <v>484</v>
       </c>
       <c r="B485" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="C485" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="D485" t="s">
         <v>659</v>
       </c>
       <c r="E485" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="F485" t="s">
         <v>315</v>
@@ -18565,16 +18574,16 @@
         <v>485</v>
       </c>
       <c r="B486" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="C486" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="D486" t="s">
         <v>66</v>
       </c>
       <c r="E486" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="F486" t="s">
         <v>315</v>
@@ -18591,16 +18600,16 @@
         <v>486</v>
       </c>
       <c r="B487" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="C487" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="D487" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E487" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="F487" t="s">
         <v>315</v>
@@ -18617,16 +18626,16 @@
         <v>487</v>
       </c>
       <c r="B488" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="C488" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="D488" t="s">
         <v>48</v>
       </c>
       <c r="E488" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="F488" t="s">
         <v>315</v>
@@ -18643,13 +18652,13 @@
         <v>488</v>
       </c>
       <c r="C489" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="D489" t="s">
         <v>66</v>
       </c>
       <c r="E489" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="F489" t="s">
         <v>315</v>
@@ -18666,13 +18675,13 @@
         <v>489</v>
       </c>
       <c r="C490" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="D490" t="s">
         <v>66</v>
       </c>
       <c r="E490" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="F490" t="s">
         <v>315</v>
@@ -18689,13 +18698,13 @@
         <v>490</v>
       </c>
       <c r="C491" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="D491" t="s">
         <v>66</v>
       </c>
       <c r="E491" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="F491" t="s">
         <v>315</v>
@@ -18712,16 +18721,16 @@
         <v>491</v>
       </c>
       <c r="B492" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="C492" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="D492" t="s">
-        <v>1822</v>
+        <v>1813</v>
       </c>
       <c r="E492" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="F492" t="s">
         <v>315</v>
@@ -18738,16 +18747,16 @@
         <v>492</v>
       </c>
       <c r="B493" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="C493" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="D493" t="s">
         <v>66</v>
       </c>
       <c r="E493" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F493" t="s">
         <v>315</v>
@@ -18764,16 +18773,16 @@
         <v>493</v>
       </c>
       <c r="B494" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="C494" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="D494" t="s">
         <v>66</v>
       </c>
       <c r="E494" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="F494" t="s">
         <v>315</v>
@@ -18790,13 +18799,13 @@
         <v>494</v>
       </c>
       <c r="C495" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="D495" t="s">
         <v>48</v>
       </c>
       <c r="E495" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="F495" t="s">
         <v>315</v>
@@ -18813,16 +18822,16 @@
         <v>495</v>
       </c>
       <c r="B496" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="C496" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="D496" t="s">
         <v>66</v>
       </c>
       <c r="E496" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="F496" t="s">
         <v>315</v>
@@ -18839,16 +18848,16 @@
         <v>496</v>
       </c>
       <c r="B497" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="C497" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="D497" t="s">
         <v>48</v>
       </c>
       <c r="E497" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="F497" t="s">
         <v>315</v>
@@ -18865,13 +18874,13 @@
         <v>497</v>
       </c>
       <c r="C498" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="D498" t="s">
         <v>66</v>
       </c>
       <c r="E498" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="F498" t="s">
         <v>315</v>
@@ -18888,16 +18897,16 @@
         <v>498</v>
       </c>
       <c r="B499" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="C499" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="D499" t="s">
         <v>461</v>
       </c>
       <c r="E499" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="F499" t="s">
         <v>315</v>
@@ -18914,16 +18923,16 @@
         <v>499</v>
       </c>
       <c r="B500" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="C500" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="D500" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="E500" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="F500" t="s">
         <v>285</v>
@@ -18940,16 +18949,16 @@
         <v>500</v>
       </c>
       <c r="B501" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="C501" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="D501" t="s">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="E501" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="F501" t="s">
         <v>285</v>
@@ -18966,16 +18975,16 @@
         <v>501</v>
       </c>
       <c r="B502" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="C502" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="D502" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="E502" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="F502" t="s">
         <v>285</v>
@@ -18992,16 +19001,16 @@
         <v>502</v>
       </c>
       <c r="B503" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="C503" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="D503" t="s">
         <v>19</v>
       </c>
       <c r="E503" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="F503" t="s">
         <v>285</v>
@@ -19018,16 +19027,16 @@
         <v>503</v>
       </c>
       <c r="B504" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="C504" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="D504" t="s">
         <v>19</v>
       </c>
       <c r="E504" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="F504" t="s">
         <v>285</v>
@@ -19044,16 +19053,16 @@
         <v>504</v>
       </c>
       <c r="B505" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="C505" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="D505" t="s">
         <v>10</v>
       </c>
       <c r="E505" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="F505" t="s">
         <v>285</v>
@@ -19070,16 +19079,16 @@
         <v>505</v>
       </c>
       <c r="B506" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="C506" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="D506" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="E506" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="F506" t="s">
         <v>285</v>
@@ -19096,16 +19105,16 @@
         <v>506</v>
       </c>
       <c r="B507" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="C507" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="D507" t="s">
         <v>66</v>
       </c>
       <c r="E507" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="F507" t="s">
         <v>296</v>
@@ -19122,16 +19131,16 @@
         <v>507</v>
       </c>
       <c r="B508" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="C508" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="D508" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="E508" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="F508" t="s">
         <v>296</v>
@@ -19148,16 +19157,16 @@
         <v>508</v>
       </c>
       <c r="B509" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="C509" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="D509" t="s">
         <v>461</v>
       </c>
       <c r="E509" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="F509" t="s">
         <v>296</v>
@@ -19174,16 +19183,16 @@
         <v>509</v>
       </c>
       <c r="B510" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="C510" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="D510" t="s">
         <v>66</v>
       </c>
       <c r="E510" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="F510" t="s">
         <v>296</v>
@@ -19200,16 +19209,16 @@
         <v>510</v>
       </c>
       <c r="B511" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="C511" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="D511" t="s">
         <v>19</v>
       </c>
       <c r="E511" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="F511" t="s">
         <v>296</v>
@@ -19226,16 +19235,16 @@
         <v>511</v>
       </c>
       <c r="B512" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="C512" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="D512" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="E512" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="F512" t="s">
         <v>296</v>
@@ -19252,16 +19261,16 @@
         <v>512</v>
       </c>
       <c r="B513" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="C513" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="D513" t="s">
         <v>66</v>
       </c>
       <c r="E513" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="F513" t="s">
         <v>296</v>
@@ -19278,16 +19287,16 @@
         <v>513</v>
       </c>
       <c r="B514" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="C514" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="D514" t="s">
         <v>10</v>
       </c>
       <c r="E514" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="F514" t="s">
         <v>296</v>
@@ -19304,16 +19313,16 @@
         <v>514</v>
       </c>
       <c r="B515" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="C515" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="D515" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="E515" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="F515" t="s">
         <v>296</v>
@@ -19330,16 +19339,16 @@
         <v>515</v>
       </c>
       <c r="B516" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="C516" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="D516" t="s">
-        <v>1823</v>
+        <v>1814</v>
       </c>
       <c r="E516" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="F516" t="s">
         <v>296</v>
@@ -19356,16 +19365,16 @@
         <v>516</v>
       </c>
       <c r="B517" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="C517" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="D517" t="s">
         <v>66</v>
       </c>
       <c r="E517" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="F517" t="s">
         <v>296</v>
@@ -19382,16 +19391,16 @@
         <v>517</v>
       </c>
       <c r="B518" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="C518" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="D518" t="s">
         <v>66</v>
       </c>
       <c r="E518" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="F518" t="s">
         <v>296</v>
@@ -19408,16 +19417,16 @@
         <v>518</v>
       </c>
       <c r="B519" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="C519" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="D519" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="E519" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="F519" t="s">
         <v>315</v>
@@ -19434,16 +19443,16 @@
         <v>519</v>
       </c>
       <c r="B520" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="C520" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="D520" t="s">
         <v>66</v>
       </c>
       <c r="E520" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="F520" t="s">
         <v>315</v>
@@ -19460,16 +19469,16 @@
         <v>520</v>
       </c>
       <c r="B521" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="C521" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="D521" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="E521" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="F521" t="s">
         <v>315</v>
@@ -19486,16 +19495,16 @@
         <v>521</v>
       </c>
       <c r="B522" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="C522" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="D522" t="s">
-        <v>1824</v>
+        <v>1815</v>
       </c>
       <c r="E522" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="F522" t="s">
         <v>315</v>
@@ -19512,16 +19521,16 @@
         <v>522</v>
       </c>
       <c r="B523" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="C523" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="D523" t="s">
         <v>66</v>
       </c>
       <c r="E523" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="F523" t="s">
         <v>315</v>
@@ -19538,16 +19547,16 @@
         <v>523</v>
       </c>
       <c r="B524" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="C524" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="D524" t="s">
-        <v>1825</v>
+        <v>1816</v>
       </c>
       <c r="E524" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="F524" t="s">
         <v>315</v>
@@ -19564,16 +19573,16 @@
         <v>524</v>
       </c>
       <c r="B525" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="C525" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="D525" t="s">
         <v>10</v>
       </c>
       <c r="E525" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="F525" t="s">
         <v>315</v>
@@ -19590,16 +19599,16 @@
         <v>525</v>
       </c>
       <c r="B526" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="C526" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="D526" t="s">
         <v>19</v>
       </c>
       <c r="E526" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="F526" t="s">
         <v>315</v>
@@ -19616,16 +19625,16 @@
         <v>526</v>
       </c>
       <c r="B527" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="C527" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="D527" t="s">
         <v>19</v>
       </c>
       <c r="E527" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="F527" t="s">
         <v>315</v>
@@ -19642,16 +19651,16 @@
         <v>527</v>
       </c>
       <c r="B528" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="C528" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="D528" t="s">
         <v>66</v>
       </c>
       <c r="E528" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="F528" t="s">
         <v>315</v>
@@ -19668,16 +19677,16 @@
         <v>528</v>
       </c>
       <c r="B529" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="C529" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="D529" t="s">
         <v>66</v>
       </c>
       <c r="E529" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="F529" t="s">
         <v>315</v>
@@ -19694,16 +19703,16 @@
         <v>529</v>
       </c>
       <c r="B530" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="C530" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="D530" t="s">
         <v>19</v>
       </c>
       <c r="E530" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="F530" t="s">
         <v>315</v>
@@ -19720,16 +19729,16 @@
         <v>530</v>
       </c>
       <c r="B531" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="C531" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="D531" t="s">
         <v>19</v>
       </c>
       <c r="E531" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="F531" t="s">
         <v>315</v>
@@ -19746,16 +19755,16 @@
         <v>531</v>
       </c>
       <c r="B532" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="C532" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="D532" t="s">
         <v>66</v>
       </c>
       <c r="E532" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="F532" t="s">
         <v>315</v>
@@ -19772,16 +19781,16 @@
         <v>532</v>
       </c>
       <c r="B533" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="C533" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="D533" t="s">
         <v>66</v>
       </c>
       <c r="E533" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="F533" t="s">
         <v>315</v>
@@ -19798,16 +19807,16 @@
         <v>533</v>
       </c>
       <c r="B534" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="C534" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="D534" t="s">
         <v>66</v>
       </c>
       <c r="E534" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="F534" t="s">
         <v>315</v>
@@ -19824,16 +19833,16 @@
         <v>534</v>
       </c>
       <c r="B535" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="C535" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="D535" t="s">
         <v>19</v>
       </c>
       <c r="E535" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="F535" t="s">
         <v>315</v>
@@ -19850,16 +19859,16 @@
         <v>535</v>
       </c>
       <c r="B536" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="C536" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="D536" t="s">
         <v>19</v>
       </c>
       <c r="E536" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="F536" t="s">
         <v>315</v>
@@ -19876,16 +19885,16 @@
         <v>536</v>
       </c>
       <c r="B537" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="C537" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="D537" t="s">
         <v>19</v>
       </c>
       <c r="E537" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="F537" t="s">
         <v>315</v>
@@ -19902,16 +19911,16 @@
         <v>537</v>
       </c>
       <c r="B538" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="C538" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="D538" t="s">
         <v>66</v>
       </c>
       <c r="E538" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="F538" t="s">
         <v>315</v>
@@ -19928,16 +19937,16 @@
         <v>538</v>
       </c>
       <c r="B539" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="C539" t="s">
-        <v>1608</v>
+        <v>1848</v>
       </c>
       <c r="D539" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="E539" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="F539" t="s">
         <v>315</v>
@@ -19954,16 +19963,16 @@
         <v>539</v>
       </c>
       <c r="B540" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="C540" t="s">
-        <v>1611</v>
+        <v>1847</v>
       </c>
       <c r="D540" t="s">
         <v>10</v>
       </c>
       <c r="E540" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="F540" t="s">
         <v>285</v>
@@ -19980,16 +19989,16 @@
         <v>540</v>
       </c>
       <c r="B541" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="C541" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="D541" t="s">
         <v>48</v>
       </c>
       <c r="E541" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="F541" t="s">
         <v>285</v>
@@ -20006,16 +20015,16 @@
         <v>541</v>
       </c>
       <c r="B542" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="C542" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="D542" t="s">
         <v>66</v>
       </c>
       <c r="E542" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="F542" t="s">
         <v>296</v>
@@ -20032,16 +20041,16 @@
         <v>542</v>
       </c>
       <c r="B543" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="C543" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="D543" t="s">
-        <v>1826</v>
+        <v>1817</v>
       </c>
       <c r="E543" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="F543" t="s">
         <v>296</v>
@@ -20058,13 +20067,13 @@
         <v>543</v>
       </c>
       <c r="C544" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="D544" t="s">
         <v>19</v>
       </c>
       <c r="E544" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="F544" t="s">
         <v>296</v>
@@ -20081,16 +20090,16 @@
         <v>544</v>
       </c>
       <c r="B545" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="C545" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="D545" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E545" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="F545" t="s">
         <v>296</v>
@@ -20107,16 +20116,16 @@
         <v>545</v>
       </c>
       <c r="B546" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="C546" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="D546" t="s">
-        <v>1826</v>
+        <v>1817</v>
       </c>
       <c r="E546" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="F546" t="s">
         <v>296</v>
@@ -20133,16 +20142,16 @@
         <v>546</v>
       </c>
       <c r="B547" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="C547" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="D547" t="s">
         <v>66</v>
       </c>
       <c r="E547" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="F547" t="s">
         <v>296</v>
@@ -20159,16 +20168,16 @@
         <v>547</v>
       </c>
       <c r="B548" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="C548" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
       <c r="D548" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E548" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="F548" t="s">
         <v>315</v>
@@ -20185,16 +20194,16 @@
         <v>548</v>
       </c>
       <c r="B549" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="C549" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
       <c r="D549" t="s">
         <v>66</v>
       </c>
       <c r="E549" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="F549" t="s">
         <v>315</v>
@@ -20211,16 +20220,16 @@
         <v>549</v>
       </c>
       <c r="B550" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="C550" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
       <c r="D550" t="s">
         <v>48</v>
       </c>
       <c r="E550" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
       <c r="F550" t="s">
         <v>315</v>
@@ -20237,16 +20246,16 @@
         <v>550</v>
       </c>
       <c r="B551" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="C551" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
       <c r="D551" t="s">
         <v>10</v>
       </c>
       <c r="E551" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
       <c r="F551" t="s">
         <v>285</v>
@@ -20263,16 +20272,16 @@
         <v>551</v>
       </c>
       <c r="B552" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
       <c r="C552" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="D552" t="s">
         <v>10</v>
       </c>
       <c r="E552" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
       <c r="F552" t="s">
         <v>285</v>
@@ -20289,16 +20298,16 @@
         <v>552</v>
       </c>
       <c r="B553" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="C553" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="D553" t="s">
         <v>10</v>
       </c>
       <c r="E553" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
       <c r="F553" t="s">
         <v>285</v>
@@ -20315,16 +20324,16 @@
         <v>553</v>
       </c>
       <c r="B554" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
       <c r="C554" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
       <c r="D554" t="s">
         <v>10</v>
       </c>
       <c r="E554" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="F554" t="s">
         <v>296</v>
@@ -20341,16 +20350,16 @@
         <v>554</v>
       </c>
       <c r="B555" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
       <c r="C555" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
       <c r="D555" t="s">
         <v>10</v>
       </c>
       <c r="E555" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
       <c r="F555" t="s">
         <v>296</v>
@@ -20367,16 +20376,16 @@
         <v>555</v>
       </c>
       <c r="B556" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="C556" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="D556" t="s">
         <v>10</v>
       </c>
       <c r="E556" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
       <c r="F556" t="s">
         <v>296</v>
@@ -20393,16 +20402,16 @@
         <v>556</v>
       </c>
       <c r="B557" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
       <c r="C557" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
       <c r="D557" t="s">
         <v>10</v>
       </c>
       <c r="E557" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
       <c r="F557" t="s">
         <v>296</v>
@@ -20419,16 +20428,16 @@
         <v>557</v>
       </c>
       <c r="B558" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="C558" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="D558" t="s">
         <v>66</v>
       </c>
       <c r="E558" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="F558" t="s">
         <v>296</v>
@@ -20445,16 +20454,16 @@
         <v>558</v>
       </c>
       <c r="B559" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="C559" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="D559" t="s">
         <v>19</v>
       </c>
       <c r="E559" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="F559" t="s">
         <v>296</v>
@@ -20471,16 +20480,16 @@
         <v>559</v>
       </c>
       <c r="B560" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="C560" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="D560" t="s">
         <v>10</v>
       </c>
       <c r="E560" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="F560" t="s">
         <v>296</v>
@@ -20497,16 +20506,16 @@
         <v>560</v>
       </c>
       <c r="B561" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="C561" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="D561" t="s">
         <v>10</v>
       </c>
       <c r="E561" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="F561" t="s">
         <v>315</v>
@@ -20523,16 +20532,16 @@
         <v>561</v>
       </c>
       <c r="B562" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="C562" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="D562" t="s">
         <v>10</v>
       </c>
       <c r="E562" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="F562" t="s">
         <v>315</v>
@@ -20549,16 +20558,16 @@
         <v>562</v>
       </c>
       <c r="B563" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="C563" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="D563" t="s">
         <v>10</v>
       </c>
       <c r="E563" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="F563" t="s">
         <v>315</v>
@@ -20575,16 +20584,16 @@
         <v>563</v>
       </c>
       <c r="B564" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="C564" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="D564" t="s">
         <v>10</v>
       </c>
       <c r="E564" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="F564" t="s">
         <v>315</v>
@@ -20601,16 +20610,16 @@
         <v>564</v>
       </c>
       <c r="B565" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="C565" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="D565" t="s">
         <v>19</v>
       </c>
       <c r="E565" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="F565" t="s">
         <v>315</v>
@@ -20627,13 +20636,13 @@
         <v>565</v>
       </c>
       <c r="C566" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="D566" t="s">
         <v>19</v>
       </c>
       <c r="E566" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="F566" t="s">
         <v>315</v>
@@ -20650,16 +20659,16 @@
         <v>566</v>
       </c>
       <c r="B567" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="C567" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="D567" t="s">
         <v>428</v>
       </c>
       <c r="E567" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="F567" t="s">
         <v>315</v>
@@ -20676,16 +20685,16 @@
         <v>567</v>
       </c>
       <c r="B568" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="C568" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="D568" t="s">
         <v>10</v>
       </c>
       <c r="E568" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="F568" t="s">
         <v>315</v>
@@ -20702,16 +20711,16 @@
         <v>568</v>
       </c>
       <c r="B569" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="C569" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="D569" t="s">
         <v>66</v>
       </c>
       <c r="E569" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="F569" t="s">
         <v>315</v>
@@ -20728,16 +20737,16 @@
         <v>569</v>
       </c>
       <c r="B570" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="C570" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="D570" t="s">
         <v>66</v>
       </c>
       <c r="E570" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="F570" t="s">
         <v>315</v>
@@ -20754,16 +20763,16 @@
         <v>570</v>
       </c>
       <c r="B571" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="C571" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="D571" t="s">
         <v>66</v>
       </c>
       <c r="E571" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="F571" t="s">
         <v>315</v>
@@ -20780,16 +20789,16 @@
         <v>571</v>
       </c>
       <c r="B572" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="C572" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="D572" t="s">
         <v>66</v>
       </c>
       <c r="E572" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="F572" t="s">
         <v>315</v>
@@ -20806,16 +20815,16 @@
         <v>572</v>
       </c>
       <c r="B573" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="C573" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="D573" t="s">
         <v>10</v>
       </c>
       <c r="E573" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="F573" t="s">
         <v>315</v>
@@ -20832,19 +20841,19 @@
         <v>573</v>
       </c>
       <c r="B574" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="C574" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="D574" t="s">
         <v>10</v>
       </c>
       <c r="E574" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="F574" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G574" t="s">
         <v>286</v>
@@ -20858,19 +20867,19 @@
         <v>574</v>
       </c>
       <c r="B575" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="C575" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="D575" t="s">
         <v>19</v>
       </c>
       <c r="E575" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="F575" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G575" t="s">
         <v>286</v>
@@ -20884,13 +20893,13 @@
         <v>575</v>
       </c>
       <c r="C576" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="D576" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E576" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="F576" t="s">
         <v>296</v>
@@ -20907,13 +20916,13 @@
         <v>576</v>
       </c>
       <c r="C577" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="D577" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E577" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
       <c r="F577" t="s">
         <v>296</v>
@@ -20930,16 +20939,16 @@
         <v>577</v>
       </c>
       <c r="B578" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="C578" t="s">
-        <v>1720</v>
+        <v>1844</v>
       </c>
       <c r="D578" t="s">
         <v>48</v>
       </c>
       <c r="E578" t="s">
-        <v>1721</v>
+        <v>1712</v>
       </c>
       <c r="F578" t="s">
         <v>296</v>
@@ -20956,16 +20965,16 @@
         <v>578</v>
       </c>
       <c r="B579" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
       <c r="C579" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="D579" t="s">
         <v>19</v>
       </c>
       <c r="E579" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="F579" t="s">
         <v>296</v>
@@ -20982,16 +20991,16 @@
         <v>579</v>
       </c>
       <c r="B580" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="C580" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="D580" t="s">
         <v>19</v>
       </c>
       <c r="E580" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="F580" t="s">
         <v>296</v>
@@ -21008,16 +21017,16 @@
         <v>580</v>
       </c>
       <c r="B581" t="s">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="C581" t="s">
-        <v>1729</v>
+        <v>1720</v>
       </c>
       <c r="D581" t="s">
         <v>19</v>
       </c>
       <c r="E581" t="s">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="F581" t="s">
         <v>296</v>
@@ -21034,16 +21043,16 @@
         <v>581</v>
       </c>
       <c r="B582" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="C582" t="s">
-        <v>1732</v>
+        <v>1723</v>
       </c>
       <c r="D582" t="s">
         <v>19</v>
       </c>
       <c r="E582" t="s">
-        <v>1733</v>
+        <v>1724</v>
       </c>
       <c r="F582" t="s">
         <v>296</v>
@@ -21060,16 +21069,16 @@
         <v>582</v>
       </c>
       <c r="B583" t="s">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="C583" t="s">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="D583" t="s">
         <v>19</v>
       </c>
       <c r="E583" t="s">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="F583" t="s">
         <v>296</v>
@@ -21086,16 +21095,16 @@
         <v>583</v>
       </c>
       <c r="B584" t="s">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="C584" t="s">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="D584" t="s">
         <v>109</v>
       </c>
       <c r="E584" t="s">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="F584" t="s">
         <v>296</v>
@@ -21112,16 +21121,16 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="C585" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="D585" t="s">
-        <v>1827</v>
+        <v>1818</v>
       </c>
       <c r="E585" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="F585" t="s">
         <v>296</v>
@@ -21138,16 +21147,16 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="C586" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="D586" t="s">
-        <v>1828</v>
+        <v>1819</v>
       </c>
       <c r="E586" t="s">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="F586" t="s">
         <v>296</v>
@@ -21164,13 +21173,13 @@
         <v>586</v>
       </c>
       <c r="C587" t="s">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="D587" t="s">
-        <v>1829</v>
+        <v>1820</v>
       </c>
       <c r="E587" t="s">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="F587" t="s">
         <v>296</v>
@@ -21187,13 +21196,13 @@
         <v>587</v>
       </c>
       <c r="C588" t="s">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="D588" t="s">
-        <v>1830</v>
+        <v>1821</v>
       </c>
       <c r="E588" t="s">
-        <v>1749</v>
+        <v>1740</v>
       </c>
       <c r="F588" t="s">
         <v>296</v>
@@ -21210,13 +21219,13 @@
         <v>588</v>
       </c>
       <c r="C589" t="s">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="D589" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E589" t="s">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="F589" t="s">
         <v>296</v>
@@ -21233,13 +21242,13 @@
         <v>589</v>
       </c>
       <c r="C590" t="s">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="D590" t="s">
         <v>66</v>
       </c>
       <c r="E590" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="F590" t="s">
         <v>296</v>
@@ -21256,13 +21265,13 @@
         <v>590</v>
       </c>
       <c r="C591" t="s">
-        <v>1848</v>
+        <v>1839</v>
       </c>
       <c r="D591" t="s">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="E591" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="F591" t="s">
         <v>315</v>
@@ -21279,13 +21288,13 @@
         <v>591</v>
       </c>
       <c r="C592" t="s">
-        <v>1831</v>
+        <v>1822</v>
       </c>
       <c r="D592" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E592" t="s">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="F592" t="s">
         <v>315</v>
@@ -21302,16 +21311,16 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="C593" t="s">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="D593" t="s">
-        <v>1832</v>
+        <v>1823</v>
       </c>
       <c r="E593" t="s">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="F593" t="s">
         <v>315</v>
@@ -21328,13 +21337,13 @@
         <v>593</v>
       </c>
       <c r="C594" t="s">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="D594" t="s">
         <v>19</v>
       </c>
       <c r="E594" t="s">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="F594" t="s">
         <v>315</v>
@@ -21351,13 +21360,13 @@
         <v>594</v>
       </c>
       <c r="C595" t="s">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="D595" t="s">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="E595" t="s">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="F595" t="s">
         <v>315</v>
@@ -21374,13 +21383,13 @@
         <v>595</v>
       </c>
       <c r="C596" t="s">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="D596" t="s">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="E596" t="s">
-        <v>1767</v>
+        <v>1758</v>
       </c>
       <c r="F596" t="s">
         <v>315</v>
@@ -21397,13 +21406,13 @@
         <v>596</v>
       </c>
       <c r="C597" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="D597" t="s">
         <v>323</v>
       </c>
       <c r="E597" t="s">
-        <v>1769</v>
+        <v>1760</v>
       </c>
       <c r="F597" t="s">
         <v>315</v>
@@ -21420,13 +21429,13 @@
         <v>597</v>
       </c>
       <c r="C598" t="s">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="D598" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="E598" t="s">
-        <v>1772</v>
+        <v>1763</v>
       </c>
       <c r="F598" t="s">
         <v>315</v>
@@ -21443,13 +21452,13 @@
         <v>598</v>
       </c>
       <c r="C599" t="s">
-        <v>1849</v>
+        <v>1840</v>
       </c>
       <c r="D599" t="s">
         <v>48</v>
       </c>
       <c r="E599" t="s">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="F599" t="s">
         <v>315</v>
@@ -21466,16 +21475,16 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>1774</v>
+        <v>1765</v>
       </c>
       <c r="C600" t="s">
-        <v>1775</v>
+        <v>1766</v>
       </c>
       <c r="D600" t="s">
         <v>10</v>
       </c>
       <c r="E600" t="s">
-        <v>1776</v>
+        <v>1767</v>
       </c>
       <c r="F600" t="s">
         <v>285</v>
@@ -21492,16 +21501,16 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="C601" t="s">
-        <v>1778</v>
+        <v>1769</v>
       </c>
       <c r="D601" t="s">
         <v>19</v>
       </c>
       <c r="E601" t="s">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="F601" t="s">
         <v>285</v>
@@ -21518,16 +21527,16 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>1780</v>
+        <v>1771</v>
       </c>
       <c r="C602" t="s">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="D602" t="s">
-        <v>1782</v>
+        <v>1773</v>
       </c>
       <c r="E602" t="s">
-        <v>1783</v>
+        <v>1774</v>
       </c>
       <c r="F602" t="s">
         <v>296</v>
@@ -21544,16 +21553,16 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="C603" t="s">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="D603" t="s">
         <v>19</v>
       </c>
       <c r="E603" t="s">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="F603" t="s">
         <v>296</v>
@@ -21570,16 +21579,16 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>1787</v>
+        <v>1778</v>
       </c>
       <c r="C604" t="s">
-        <v>1788</v>
+        <v>1779</v>
       </c>
       <c r="D604" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="E604" t="s">
-        <v>1790</v>
+        <v>1781</v>
       </c>
       <c r="F604" t="s">
         <v>296</v>
@@ -21596,16 +21605,16 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>1791</v>
+        <v>1782</v>
       </c>
       <c r="C605" t="s">
-        <v>1792</v>
+        <v>1783</v>
       </c>
       <c r="D605" t="s">
-        <v>1793</v>
+        <v>1784</v>
       </c>
       <c r="E605" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="F605" t="s">
         <v>296</v>
@@ -21622,16 +21631,16 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>1795</v>
+        <v>1786</v>
       </c>
       <c r="C606" t="s">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="D606" t="s">
         <v>66</v>
       </c>
       <c r="E606" t="s">
-        <v>1797</v>
+        <v>1788</v>
       </c>
       <c r="F606" t="s">
         <v>296</v>
@@ -21648,16 +21657,16 @@
         <v>606</v>
       </c>
       <c r="B607" t="s">
-        <v>1798</v>
+        <v>1789</v>
       </c>
       <c r="C607" t="s">
-        <v>1799</v>
+        <v>1790</v>
       </c>
       <c r="D607" t="s">
-        <v>1798</v>
+        <v>1789</v>
       </c>
       <c r="E607" t="s">
-        <v>1800</v>
+        <v>1791</v>
       </c>
       <c r="F607" t="s">
         <v>315</v>
@@ -21674,16 +21683,16 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>1801</v>
+        <v>1792</v>
       </c>
       <c r="C608" t="s">
-        <v>1802</v>
+        <v>1793</v>
       </c>
       <c r="D608" t="s">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="E608" t="s">
-        <v>1803</v>
+        <v>1794</v>
       </c>
       <c r="F608" t="s">
         <v>315</v>
@@ -21700,13 +21709,13 @@
         <v>608</v>
       </c>
       <c r="C609" t="s">
-        <v>1804</v>
+        <v>1795</v>
       </c>
       <c r="D609" t="s">
         <v>19</v>
       </c>
       <c r="E609" t="s">
-        <v>1805</v>
+        <v>1796</v>
       </c>
       <c r="F609" t="s">
         <v>315</v>
@@ -21723,13 +21732,13 @@
         <v>609</v>
       </c>
       <c r="C610" t="s">
-        <v>1806</v>
+        <v>1797</v>
       </c>
       <c r="D610" t="s">
         <v>19</v>
       </c>
       <c r="E610" t="s">
-        <v>1807</v>
+        <v>1798</v>
       </c>
       <c r="F610" t="s">
         <v>315</v>
@@ -21746,16 +21755,16 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>1808</v>
+        <v>1799</v>
       </c>
       <c r="C611" t="s">
-        <v>1809</v>
+        <v>1800</v>
       </c>
       <c r="D611" t="s">
         <v>19</v>
       </c>
       <c r="E611" t="s">
-        <v>1810</v>
+        <v>1801</v>
       </c>
       <c r="F611" t="s">
         <v>315</v>
@@ -21772,16 +21781,16 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>1811</v>
+        <v>1802</v>
       </c>
       <c r="C612" t="s">
-        <v>1812</v>
+        <v>1803</v>
       </c>
       <c r="D612" t="s">
         <v>10</v>
       </c>
       <c r="E612" t="s">
-        <v>1813</v>
+        <v>1804</v>
       </c>
       <c r="F612" t="s">
         <v>315</v>
@@ -21798,16 +21807,16 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>1814</v>
+        <v>1805</v>
       </c>
       <c r="C613" t="s">
-        <v>1815</v>
+        <v>1806</v>
       </c>
       <c r="D613" t="s">
         <v>66</v>
       </c>
       <c r="E613" t="s">
-        <v>1816</v>
+        <v>1807</v>
       </c>
       <c r="F613" t="s">
         <v>315</v>
